--- a/Tables/Word_similarity_summary_combined_clics3based_Creativity.xlsx
+++ b/Tables/Word_similarity_summary_combined_clics3based_Creativity.xlsx
@@ -190,40 +190,40 @@
         <v>19</v>
       </c>
       <c r="F2" t="n">
-        <v>4404.0</v>
+        <v>3380.0</v>
       </c>
       <c r="G2" t="n">
         <v>12310.0</v>
       </c>
       <c r="H2" t="n">
-        <v>2630.0</v>
+        <v>3727.0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.21364744110479286</v>
+        <v>0.3027619821283509</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.01564256551525352</v>
+        <v>-0.020683502816120723</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.026121072548177835</v>
+        <v>-0.019140199928156156</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.01744956384440963</v>
+        <v>-0.012832534146080318</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.029526748921565496</v>
+        <v>-0.024429002000393874</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.04056483572620571</v>
+        <v>-0.02068619107084483</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.026462617934128227</v>
+        <v>-0.013786780041777191</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4226260746778785</v>
+        <v>0.2067969930428094</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.18051456936939858</v>
+        <v>0.24272280083735445</v>
       </c>
     </row>
   </sheetData>
